--- a/excel/汇报.xlsx
+++ b/excel/汇报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,35 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>上海口罩数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口罩微博数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQI指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口罩归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQI指数归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,11 +85,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -70,6 +102,334 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>口罩归一化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AQI指数归一化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.75634517766497467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48730964467005078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76649746192893398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4720812182741117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19796954314720813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6142131979695438E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17766497461928935</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0456852791878174E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.553299492385787E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1065989847715736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1370558375634514E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35025380710659898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1065989847715741E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5380710659898477E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5837563451776651E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30456852791878175</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43654822335025378</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84263959390862941</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56345177664974622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98984771573604058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10152284263959391</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15228426395939088</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6142131979695438E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5685279187817257E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4467005076142132</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0761421319796954E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12690355329949238</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18274111675126903</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.7208121827411168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="155313664"/>
+        <c:axId val="170539648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="155313664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170539648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170539648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155313664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+    <sheetView topLeftCell="C67" workbookViewId="0">
       <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
@@ -2148,15 +2508,877 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>193</v>
+      </c>
+      <c r="D3">
+        <f>(B3-1)/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E3">
+        <f>(C3-44)/(241-44)</f>
+        <v>0.75634517766497467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>140</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D33" si="0">(B4-1)/14</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E33" si="1">(C4-44)/(241-44)</f>
+        <v>0.48730964467005078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>195</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.76649746192893398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>41643</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>137</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.4720812182741117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>41644</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.19796954314720813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>7.6142131979695438E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.17766497461928935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.0456852791878174E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3.553299492385787E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.1065989847715736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>41650</v>
+      </c>
+      <c r="C13">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-7.1428571428571425E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>9.1370558375634514E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>41651</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>113</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.35025380710659898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>7.1065989847715741E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2.5380710659898477E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>5.5837563451776651E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>104</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.30456852791878175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>130</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.43654822335025378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>210</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.84263959390862941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>41658</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>155</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.56345177664974622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>41659</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>239</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.98984771573604058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.10152284263959391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.15228426395939088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>41662</v>
+      </c>
+      <c r="C25">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-7.1428571428571425E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>7.6142131979695438E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>41663</v>
+      </c>
+      <c r="C26">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-7.1428571428571425E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>4.5685279187817257E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>41664</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>132</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0.4467005076142132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>41665</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>5.0761421319796954E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0.12690355329949238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0.18274111675126903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>41669</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>241</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>186</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.7208121827411168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="2">
+        <f>MAX(B3:B33)</f>
+        <v>15</v>
+      </c>
+      <c r="C34" s="2">
+        <f>MAX(C3:C33)</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="2">
+        <f>MIN(B3:B34)</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <f>MIN(C3:C34)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:B12 A14:B24 A27:B33">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:C33 D2:E2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
